--- a/koltsegterv.xlsx
+++ b/koltsegterv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zolta\Desktop\WriteRobbery2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F09069-372F-4DAF-BB90-3AEAAB15DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0D5F4E-ADC4-46D4-9450-6F4D7F188CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96D79838-DCFB-41EA-8CA1-EFAA5895250F}"/>
   </bookViews>
@@ -162,10 +162,10 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0&quot; db&quot;"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0&quot; /hó&quot;"/>
-    <numFmt numFmtId="171" formatCode="0&quot; Ft/hó&quot;"/>
-    <numFmt numFmtId="172" formatCode="0&quot; fő&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0&quot; /hó&quot;"/>
+    <numFmt numFmtId="167" formatCode="0&quot; Ft/hó&quot;"/>
+    <numFmt numFmtId="168" formatCode="0&quot; fő&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -221,21 +221,21 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -613,7 +613,7 @@
   <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,31 +633,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -666,7 +666,7 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>28900</v>
       </c>
       <c r="J3" t="s">
@@ -675,7 +675,7 @@
       <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>32990</v>
       </c>
     </row>
@@ -683,20 +683,20 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f>SUM(D11,D14,D7,D8)</f>
         <v>107</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <f>$D$17</f>
         <v>174</v>
       </c>
@@ -705,21 +705,21 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>H3*H4</f>
         <v>3092300</v>
       </c>
       <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <f>$L3*$L4</f>
         <v>5740260</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -728,19 +728,19 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>73290</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>67056</v>
       </c>
     </row>
@@ -748,20 +748,20 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <f>SUM(D3*3,D4*1)</f>
         <v>7</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <f>$D$17</f>
         <v>174</v>
       </c>
@@ -770,21 +770,21 @@
       <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>H7*H8</f>
         <v>513030</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <f>$L7*$L8</f>
         <v>11667744</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -793,19 +793,19 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>262590</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>7970</v>
       </c>
     </row>
@@ -813,21 +813,21 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>D7*2</f>
         <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <f>SUM((D3*2),(D4*1))</f>
         <v>6</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <f>$D$17</f>
         <v>174</v>
       </c>
@@ -836,14 +836,14 @@
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>H11*H12</f>
         <v>1575540</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f>$L11*$L12</f>
         <v>1386780</v>
       </c>
@@ -852,30 +852,30 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>D8*2</f>
         <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>48790</v>
       </c>
       <c r="K15" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>8390</v>
       </c>
     </row>
@@ -883,14 +883,14 @@
       <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <f>SUM(D3*3,D4*1)</f>
         <v>7</v>
       </c>
       <c r="K16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <f>$D$17</f>
         <v>174</v>
       </c>
@@ -899,61 +899,61 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f>SUM((D3*D11),D12,(D4*D14),D15)</f>
         <v>174</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f>H15*H16</f>
         <v>341530</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <f>$L15*$L16</f>
         <v>1459860</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L18" s="4"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f>SUM(H5,H9,H13,H17)</f>
         <v>5522400</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>3</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>12600</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>4000</v>
       </c>
     </row>
@@ -961,20 +961,20 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>1500</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f>H21*(D3+D4)</f>
         <v>63000</v>
       </c>
       <c r="K22" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <f>L21*D17</f>
         <v>696000</v>
       </c>
@@ -983,13 +983,13 @@
       <c r="G24" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>8128</v>
       </c>
       <c r="K24" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <f>SUM(L5,L9,L13,L17,)</f>
         <v>20254644</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <f>H24*(D3+D4)</f>
         <v>40640</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="G27" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f>SUM(H22,H25)</f>
         <v>103640</v>
       </c>
@@ -1017,10 +1017,10 @@
         <v>38</v>
       </c>
       <c r="L31" s="11"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="9"/>
+      <c r="E32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
